--- a/processed-data/04_gene_ontology/TableSxx_KEGG.xlsx
+++ b/processed-data/04_gene_ontology/TableSxx_KEGG.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>10000/5894/2033</t>
+          <t>AKT3/RAF1/EP300</t>
         </is>
       </c>
       <c r="J2">
@@ -490,7 +490,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>10000/5894/2033</t>
+          <t>AKT3/RAF1/EP300</t>
         </is>
       </c>
       <c r="J3">
@@ -534,7 +534,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>10000/5894/2033</t>
+          <t>AKT3/RAF1/EP300</t>
         </is>
       </c>
       <c r="J4">
@@ -578,7 +578,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10000/5894/2033</t>
+          <t>AKT3/RAF1/EP300</t>
         </is>
       </c>
       <c r="J5">
@@ -622,7 +622,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10000/5894/2033</t>
+          <t>AKT3/RAF1/EP300</t>
         </is>
       </c>
       <c r="J6">
@@ -666,7 +666,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>10000/5894/2033</t>
+          <t>AKT3/RAF1/EP300</t>
         </is>
       </c>
       <c r="J7">
@@ -710,7 +710,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>10000/5894/2033</t>
+          <t>AKT3/RAF1/EP300</t>
         </is>
       </c>
       <c r="J8">
@@ -754,7 +754,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>10000/5894/2033</t>
+          <t>AKT3/RAF1/EP300</t>
         </is>
       </c>
       <c r="J9">
@@ -798,7 +798,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>10000/5894/2033</t>
+          <t>AKT3/RAF1/EP300</t>
         </is>
       </c>
       <c r="J10">
@@ -842,7 +842,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10000/57492/5894</t>
+          <t>AKT3/ARID1B/RAF1</t>
         </is>
       </c>
       <c r="J11">
@@ -886,7 +886,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10000/5894/2033</t>
+          <t>AKT3/RAF1/EP300</t>
         </is>
       </c>
       <c r="J12">
@@ -930,7 +930,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>10000/5894/2033</t>
+          <t>AKT3/RAF1/EP300</t>
         </is>
       </c>
       <c r="J13">
@@ -974,7 +974,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J14">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J15">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>6310/2033</t>
+          <t>ATXN1/EP300</t>
         </is>
       </c>
       <c r="J16">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J17">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J18">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J19">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J20">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J21">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J22">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J23">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J24">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>5894/2033</t>
+          <t>RAF1/EP300</t>
         </is>
       </c>
       <c r="J25">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J26">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>5894/2033</t>
+          <t>RAF1/EP300</t>
         </is>
       </c>
       <c r="J27">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J28">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J29">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J30">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J31">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>10000/5894/2033</t>
+          <t>AKT3/RAF1/EP300</t>
         </is>
       </c>
       <c r="J32">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J33">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J34">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J35">
@@ -1942,7 +1942,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J36">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J37">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>10000/2033</t>
+          <t>AKT3/EP300</t>
         </is>
       </c>
       <c r="J38">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J39">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J40">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>10000/2033</t>
+          <t>AKT3/EP300</t>
         </is>
       </c>
       <c r="J41">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J42">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J43">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J44">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J45">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J46">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J47">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J48">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J49">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J50">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J51">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J52">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J53">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J54">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J55">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J56">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J57">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>10000/5894</t>
+          <t>AKT3/RAF1</t>
         </is>
       </c>
       <c r="J58">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>10000/5894/2033/2776</t>
+          <t>AKT3/RAF1/EP300/GNAQ</t>
         </is>
       </c>
       <c r="J59">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>10000/5894/2033/23389</t>
+          <t>AKT3/RAF1/EP300/MED13L</t>
         </is>
       </c>
       <c r="J60">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>10000/5894/2776</t>
+          <t>AKT3/RAF1/GNAQ</t>
         </is>
       </c>
       <c r="J61">
